--- a/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
+++ b/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 2025" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 2025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr 2025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May 2025" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun 2025" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jul 2025" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -654,6 +658,293 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -924,7 +1215,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1035,6 +1325,416 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Apr 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Apr 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Apr 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Apr 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Apr 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Apr 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -1085,6 +1785,202 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -2886,4 +3782,2976 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="16" min="1" max="1"/>
+    <col width="22" customWidth="1" style="16" min="2" max="2"/>
+    <col width="22" customWidth="1" style="16" min="3" max="3"/>
+    <col width="22" customWidth="1" style="16" min="4" max="4"/>
+    <col width="22" customWidth="1" style="16" min="5" max="5"/>
+    <col width="22" customWidth="1" style="16" min="6" max="6"/>
+    <col width="22" customWidth="1" style="16" min="7" max="7"/>
+    <col width="22" customWidth="1" style="16" min="8" max="8"/>
+    <col width="22" customWidth="1" style="16" min="9" max="9"/>
+    <col width="22" customWidth="1" style="16" min="10" max="10"/>
+    <col width="22" customWidth="1" style="16" min="11" max="11"/>
+    <col width="22" customWidth="1" style="16" min="12" max="12"/>
+    <col width="22" customWidth="1" style="16" min="13" max="13"/>
+    <col width="22" customWidth="1" style="16" min="14" max="14"/>
+    <col width="22" customWidth="1" style="16" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" s="16">
+      <c r="A1" s="22" t="inlineStr">
+        <is>
+          <t>MONTHLY RETAIL SALES SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="16">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>REPORTING MONTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="3" customHeight="1" s="16"/>
+    <row r="4" ht="40" customHeight="1" s="16">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="3" customHeight="1" s="16"/>
+    <row r="6" ht="35" customHeight="1" s="16">
+      <c r="A6" s="25" t="inlineStr">
+        <is>
+          <t>SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="16">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>Total Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" s="16">
+      <c r="A8" s="28" t="n">
+        <v>59084.2</v>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" s="16">
+      <c r="A10" s="25" t="inlineStr">
+        <is>
+          <t>WEEKLY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" s="16">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="J11" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" s="16">
+      <c r="A12" s="28" t="n">
+        <v>9938.049999999999</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>12534.75</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>9065</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>22346.4</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30" t="n">
+        <v>9938.049999999999</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" s="16">
+      <c r="J13" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>12534.75</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" s="16">
+      <c r="J14" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" s="16">
+      <c r="J15" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>22346.4</v>
+      </c>
+    </row>
+    <row r="16" ht="74.25" customHeight="1" s="16">
+      <c r="J16" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="30" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" s="16">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>DAILY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" s="16">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" s="16">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" s="16">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="n">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" s="16">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" s="16">
+      <c r="A24" s="29" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>12359.25</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" s="16">
+      <c r="A25" s="29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B25" s="28" t="n">
+        <v>16391.15</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" s="16">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>8058.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" s="16">
+      <c r="A58" s="25" t="inlineStr">
+        <is>
+          <t>CUSTOMERS REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="35" customHeight="1" s="16">
+      <c r="A59" s="27" t="inlineStr">
+        <is>
+          <t>Total Customers</t>
+        </is>
+      </c>
+      <c r="B59" s="27" t="inlineStr">
+        <is>
+          <t>New Cst</t>
+        </is>
+      </c>
+      <c r="C59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst</t>
+        </is>
+      </c>
+      <c r="D59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst from Last Month</t>
+        </is>
+      </c>
+      <c r="E59" s="27" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="F59" s="27" t="inlineStr">
+        <is>
+          <t>R.R wrt. Last Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" s="16">
+      <c r="A60" s="29" t="n">
+        <v>49</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr">
+        <is>
+          <t>14.65%</t>
+        </is>
+      </c>
+      <c r="F60" s="29" t="inlineStr">
+        <is>
+          <t>50.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="35" customHeight="1" s="16">
+      <c r="A62" s="25" t="inlineStr">
+        <is>
+          <t>PREVIOUS MONTH COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="35" customHeight="1" s="16">
+      <c r="A63" s="31" t="inlineStr"/>
+      <c r="B63" s="32" t="n"/>
+      <c r="C63" s="33" t="n"/>
+      <c r="D63" s="34" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E63" s="35" t="inlineStr">
+        <is>
+          <t>Mar 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="35" customHeight="1" s="16">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B64" s="32" t="n"/>
+      <c r="C64" s="33" t="n"/>
+      <c r="D64" s="37" t="n">
+        <v>59084.2</v>
+      </c>
+      <c r="E64" s="38" t="n">
+        <v>69643.95</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" s="16">
+      <c r="A65" s="36" t="inlineStr">
+        <is>
+          <t>Total Orders</t>
+        </is>
+      </c>
+      <c r="B65" s="32" t="n"/>
+      <c r="C65" s="33" t="n"/>
+      <c r="D65" s="37" t="n">
+        <v>94</v>
+      </c>
+      <c r="E65" s="38" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" ht="35" customHeight="1" s="16">
+      <c r="A66" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers List</t>
+        </is>
+      </c>
+      <c r="B66" s="32" t="n"/>
+      <c r="C66" s="33" t="n"/>
+      <c r="D66" s="37" t="n">
+        <v>282</v>
+      </c>
+      <c r="E66" s="38" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" ht="35" customHeight="1" s="16">
+      <c r="A67" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers in Month</t>
+        </is>
+      </c>
+      <c r="B67" s="32" t="n"/>
+      <c r="C67" s="33" t="n"/>
+      <c r="D67" s="37" t="n">
+        <v>49</v>
+      </c>
+      <c r="E67" s="38" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" ht="35" customHeight="1" s="16">
+      <c r="A68" s="36" t="inlineStr">
+        <is>
+          <t>New Customers</t>
+        </is>
+      </c>
+      <c r="B68" s="32" t="n"/>
+      <c r="C68" s="33" t="n"/>
+      <c r="D68" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" s="38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="35" customHeight="1" s="16">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>Repeating Customers</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="n"/>
+      <c r="C69" s="33" t="n"/>
+      <c r="D69" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" ht="35" customHeight="1" s="16">
+      <c r="A70" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="B70" s="32" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="37" t="inlineStr">
+        <is>
+          <t>14.65%</t>
+        </is>
+      </c>
+      <c r="E70" s="38" t="inlineStr">
+        <is>
+          <t>15.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="35" customHeight="1" s="16">
+      <c r="A71" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate wrt. Last Month</t>
+        </is>
+      </c>
+      <c r="B71" s="32" t="n"/>
+      <c r="C71" s="33" t="n"/>
+      <c r="D71" s="37" t="inlineStr">
+        <is>
+          <t>50.85%</t>
+        </is>
+      </c>
+      <c r="E71" s="38" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" s="16">
+      <c r="A73" s="25" t="inlineStr">
+        <is>
+          <t>WEEK COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="35" customHeight="1" s="16">
+      <c r="A74" s="39" t="inlineStr">
+        <is>
+          <t>Weeks</t>
+        </is>
+      </c>
+      <c r="B74" s="32" t="n"/>
+      <c r="C74" s="33" t="n"/>
+      <c r="D74" s="34" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E74" s="35" t="inlineStr">
+        <is>
+          <t>Mar 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="35" customHeight="1" s="16">
+      <c r="A75" s="36" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B75" s="32" t="n"/>
+      <c r="C75" s="33" t="n"/>
+      <c r="D75" s="37" t="n">
+        <v>9938.049999999999</v>
+      </c>
+      <c r="E75" s="38" t="n">
+        <v>4386.25</v>
+      </c>
+    </row>
+    <row r="76" ht="35" customHeight="1" s="16">
+      <c r="A76" s="36" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="B76" s="32" t="n"/>
+      <c r="C76" s="33" t="n"/>
+      <c r="D76" s="37" t="n">
+        <v>12534.75</v>
+      </c>
+      <c r="E76" s="38" t="n">
+        <v>18301</v>
+      </c>
+    </row>
+    <row r="77" ht="35" customHeight="1" s="16">
+      <c r="A77" s="36" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="B77" s="32" t="n"/>
+      <c r="C77" s="33" t="n"/>
+      <c r="D77" s="37" t="n">
+        <v>9065</v>
+      </c>
+      <c r="E77" s="38" t="n">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="78" ht="35" customHeight="1" s="16">
+      <c r="A78" s="36" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="B78" s="32" t="n"/>
+      <c r="C78" s="33" t="n"/>
+      <c r="D78" s="37" t="n">
+        <v>22346.4</v>
+      </c>
+      <c r="E78" s="38" t="n">
+        <v>20761.5</v>
+      </c>
+    </row>
+    <row r="79" ht="35" customHeight="1" s="16">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="B79" s="32" t="n"/>
+      <c r="C79" s="33" t="n"/>
+      <c r="D79" s="37" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E79" s="38" t="n">
+        <v>19486.2</v>
+      </c>
+    </row>
+    <row r="80" ht="35" customHeight="1" s="16">
+      <c r="A80" s="36" t="inlineStr">
+        <is>
+          <t>Week-6</t>
+        </is>
+      </c>
+      <c r="B80" s="32" t="n"/>
+      <c r="C80" s="33" t="n"/>
+      <c r="D80" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="38" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" ht="35" customHeight="1" s="16">
+      <c r="A81" s="25" t="inlineStr">
+        <is>
+          <t>DAY COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="35" customHeight="1" s="16">
+      <c r="A82" s="40" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="B82" s="32" t="n"/>
+      <c r="C82" s="33" t="n"/>
+      <c r="D82" s="34" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+      <c r="E82" s="35" t="inlineStr">
+        <is>
+          <t>Mar 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="35" customHeight="1" s="16">
+      <c r="A83" s="36" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B83" s="32" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="37" t="n">
+        <v>8105</v>
+      </c>
+      <c r="E83" s="38" t="n">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="84" ht="35" customHeight="1" s="16">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B84" s="32" t="n"/>
+      <c r="C84" s="33" t="n"/>
+      <c r="D84" s="37" t="n">
+        <v>7370</v>
+      </c>
+      <c r="E84" s="38" t="n">
+        <v>7492</v>
+      </c>
+    </row>
+    <row r="85" ht="35" customHeight="1" s="16">
+      <c r="A85" s="36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B85" s="32" t="n"/>
+      <c r="C85" s="33" t="n"/>
+      <c r="D85" s="37" t="n">
+        <v>6800</v>
+      </c>
+      <c r="E85" s="38" t="n">
+        <v>11538.2</v>
+      </c>
+    </row>
+    <row r="86" ht="35" customHeight="1" s="16">
+      <c r="A86" s="36" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B86" s="32" t="n"/>
+      <c r="C86" s="33" t="n"/>
+      <c r="D86" s="37" t="n">
+        <v>12359.25</v>
+      </c>
+      <c r="E86" s="38" t="n">
+        <v>10634</v>
+      </c>
+    </row>
+    <row r="87" ht="35" customHeight="1" s="16">
+      <c r="A87" s="36" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B87" s="32" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="37" t="n">
+        <v>16391.15</v>
+      </c>
+      <c r="E87" s="38" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="88" ht="35" customHeight="1" s="16">
+      <c r="A88" s="36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B88" s="32" t="n"/>
+      <c r="C88" s="33" t="n"/>
+      <c r="D88" s="37" t="n">
+        <v>8058.8</v>
+      </c>
+      <c r="E88" s="38" t="n">
+        <v>12559.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A65:C65"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="16" min="1" max="1"/>
+    <col width="22" customWidth="1" style="16" min="2" max="2"/>
+    <col width="22" customWidth="1" style="16" min="3" max="3"/>
+    <col width="22" customWidth="1" style="16" min="4" max="4"/>
+    <col width="22" customWidth="1" style="16" min="5" max="5"/>
+    <col width="22" customWidth="1" style="16" min="6" max="6"/>
+    <col width="22" customWidth="1" style="16" min="7" max="7"/>
+    <col width="22" customWidth="1" style="16" min="8" max="8"/>
+    <col width="22" customWidth="1" style="16" min="9" max="9"/>
+    <col width="22" customWidth="1" style="16" min="10" max="10"/>
+    <col width="22" customWidth="1" style="16" min="11" max="11"/>
+    <col width="22" customWidth="1" style="16" min="12" max="12"/>
+    <col width="22" customWidth="1" style="16" min="13" max="13"/>
+    <col width="22" customWidth="1" style="16" min="14" max="14"/>
+    <col width="22" customWidth="1" style="16" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" s="16">
+      <c r="A1" s="22" t="inlineStr">
+        <is>
+          <t>MONTHLY RETAIL SALES SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="16">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>REPORTING MONTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="3" customHeight="1" s="16"/>
+    <row r="4" ht="40" customHeight="1" s="16">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="3" customHeight="1" s="16"/>
+    <row r="6" ht="35" customHeight="1" s="16">
+      <c r="A6" s="25" t="inlineStr">
+        <is>
+          <t>SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="16">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>Total Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" s="16">
+      <c r="A8" s="28" t="n">
+        <v>74663.14999999999</v>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" s="16">
+      <c r="A10" s="25" t="inlineStr">
+        <is>
+          <t>WEEKLY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" s="16">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="J11" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" s="16">
+      <c r="A12" s="28" t="n">
+        <v>10128.25</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>16236.75</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>11286.75</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>22219.4</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>14792</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30" t="n">
+        <v>10128.25</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" s="16">
+      <c r="J13" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>16236.75</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" s="16">
+      <c r="J14" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>11286.75</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" s="16">
+      <c r="J15" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>22219.4</v>
+      </c>
+    </row>
+    <row r="16" ht="74.25" customHeight="1" s="16">
+      <c r="J16" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="30" t="n">
+        <v>14792</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" s="16">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>DAILY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" s="16">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" s="16">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>13759.9</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" s="16">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="n">
+        <v>14634.5</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" s="16">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" s="16">
+      <c r="A24" s="29" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>18233.25</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" s="16">
+      <c r="A25" s="29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B25" s="28" t="n">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" s="16">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>13372.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" s="16">
+      <c r="A58" s="25" t="inlineStr">
+        <is>
+          <t>CUSTOMERS REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="35" customHeight="1" s="16">
+      <c r="A59" s="27" t="inlineStr">
+        <is>
+          <t>Total Customers</t>
+        </is>
+      </c>
+      <c r="B59" s="27" t="inlineStr">
+        <is>
+          <t>New Cst</t>
+        </is>
+      </c>
+      <c r="C59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst</t>
+        </is>
+      </c>
+      <c r="D59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst from Last Month</t>
+        </is>
+      </c>
+      <c r="E59" s="27" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="F59" s="27" t="inlineStr">
+        <is>
+          <t>R.R wrt. Last Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" s="16">
+      <c r="A60" s="29" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+      <c r="F60" s="29" t="inlineStr">
+        <is>
+          <t>55.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="35" customHeight="1" s="16">
+      <c r="A62" s="25" t="inlineStr">
+        <is>
+          <t>PREVIOUS MONTH COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="35" customHeight="1" s="16">
+      <c r="A63" s="31" t="inlineStr"/>
+      <c r="B63" s="32" t="n"/>
+      <c r="C63" s="33" t="n"/>
+      <c r="D63" s="34" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E63" s="35" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="35" customHeight="1" s="16">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B64" s="32" t="n"/>
+      <c r="C64" s="33" t="n"/>
+      <c r="D64" s="37" t="n">
+        <v>74663.14999999999</v>
+      </c>
+      <c r="E64" s="38" t="n">
+        <v>59084.2</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" s="16">
+      <c r="A65" s="36" t="inlineStr">
+        <is>
+          <t>Total Orders</t>
+        </is>
+      </c>
+      <c r="B65" s="32" t="n"/>
+      <c r="C65" s="33" t="n"/>
+      <c r="D65" s="37" t="n">
+        <v>109</v>
+      </c>
+      <c r="E65" s="38" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" ht="35" customHeight="1" s="16">
+      <c r="A66" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers List</t>
+        </is>
+      </c>
+      <c r="B66" s="32" t="n"/>
+      <c r="C66" s="33" t="n"/>
+      <c r="D66" s="37" t="n">
+        <v>302</v>
+      </c>
+      <c r="E66" s="38" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" ht="35" customHeight="1" s="16">
+      <c r="A67" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers in Month</t>
+        </is>
+      </c>
+      <c r="B67" s="32" t="n"/>
+      <c r="C67" s="33" t="n"/>
+      <c r="D67" s="37" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67" s="38" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" ht="35" customHeight="1" s="16">
+      <c r="A68" s="36" t="inlineStr">
+        <is>
+          <t>New Customers</t>
+        </is>
+      </c>
+      <c r="B68" s="32" t="n"/>
+      <c r="C68" s="33" t="n"/>
+      <c r="D68" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" s="38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="35" customHeight="1" s="16">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>Repeating Customers</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="n"/>
+      <c r="C69" s="33" t="n"/>
+      <c r="D69" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" ht="35" customHeight="1" s="16">
+      <c r="A70" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="B70" s="32" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="37" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+      <c r="E70" s="38" t="inlineStr">
+        <is>
+          <t>14.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="35" customHeight="1" s="16">
+      <c r="A71" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate wrt. Last Month</t>
+        </is>
+      </c>
+      <c r="B71" s="32" t="n"/>
+      <c r="C71" s="33" t="n"/>
+      <c r="D71" s="37" t="inlineStr">
+        <is>
+          <t>55.1%</t>
+        </is>
+      </c>
+      <c r="E71" s="38" t="inlineStr">
+        <is>
+          <t>50.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" s="16">
+      <c r="A73" s="25" t="inlineStr">
+        <is>
+          <t>WEEK COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="35" customHeight="1" s="16">
+      <c r="A74" s="39" t="inlineStr">
+        <is>
+          <t>Weeks</t>
+        </is>
+      </c>
+      <c r="B74" s="32" t="n"/>
+      <c r="C74" s="33" t="n"/>
+      <c r="D74" s="34" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E74" s="35" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="35" customHeight="1" s="16">
+      <c r="A75" s="36" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B75" s="32" t="n"/>
+      <c r="C75" s="33" t="n"/>
+      <c r="D75" s="37" t="n">
+        <v>10128.25</v>
+      </c>
+      <c r="E75" s="38" t="n">
+        <v>9938.049999999999</v>
+      </c>
+    </row>
+    <row r="76" ht="35" customHeight="1" s="16">
+      <c r="A76" s="36" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="B76" s="32" t="n"/>
+      <c r="C76" s="33" t="n"/>
+      <c r="D76" s="37" t="n">
+        <v>16236.75</v>
+      </c>
+      <c r="E76" s="38" t="n">
+        <v>12534.75</v>
+      </c>
+    </row>
+    <row r="77" ht="35" customHeight="1" s="16">
+      <c r="A77" s="36" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="B77" s="32" t="n"/>
+      <c r="C77" s="33" t="n"/>
+      <c r="D77" s="37" t="n">
+        <v>11286.75</v>
+      </c>
+      <c r="E77" s="38" t="n">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="78" ht="35" customHeight="1" s="16">
+      <c r="A78" s="36" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="B78" s="32" t="n"/>
+      <c r="C78" s="33" t="n"/>
+      <c r="D78" s="37" t="n">
+        <v>22219.4</v>
+      </c>
+      <c r="E78" s="38" t="n">
+        <v>22346.4</v>
+      </c>
+    </row>
+    <row r="79" ht="35" customHeight="1" s="16">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="B79" s="32" t="n"/>
+      <c r="C79" s="33" t="n"/>
+      <c r="D79" s="37" t="n">
+        <v>14792</v>
+      </c>
+      <c r="E79" s="38" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="81" ht="35" customHeight="1" s="16">
+      <c r="A81" s="25" t="inlineStr">
+        <is>
+          <t>DAY COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="35" customHeight="1" s="16">
+      <c r="A82" s="40" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="B82" s="32" t="n"/>
+      <c r="C82" s="33" t="n"/>
+      <c r="D82" s="34" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+      <c r="E82" s="35" t="inlineStr">
+        <is>
+          <t>Apr 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="35" customHeight="1" s="16">
+      <c r="A83" s="36" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B83" s="32" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="37" t="n">
+        <v>13759.9</v>
+      </c>
+      <c r="E83" s="38" t="n">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="84" ht="35" customHeight="1" s="16">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B84" s="32" t="n"/>
+      <c r="C84" s="33" t="n"/>
+      <c r="D84" s="37" t="n">
+        <v>14634.5</v>
+      </c>
+      <c r="E84" s="38" t="n">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="85" ht="35" customHeight="1" s="16">
+      <c r="A85" s="36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B85" s="32" t="n"/>
+      <c r="C85" s="33" t="n"/>
+      <c r="D85" s="37" t="n">
+        <v>6578</v>
+      </c>
+      <c r="E85" s="38" t="n">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="86" ht="35" customHeight="1" s="16">
+      <c r="A86" s="36" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B86" s="32" t="n"/>
+      <c r="C86" s="33" t="n"/>
+      <c r="D86" s="37" t="n">
+        <v>18233.25</v>
+      </c>
+      <c r="E86" s="38" t="n">
+        <v>12359.25</v>
+      </c>
+    </row>
+    <row r="87" ht="35" customHeight="1" s="16">
+      <c r="A87" s="36" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B87" s="32" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="37" t="n">
+        <v>8085</v>
+      </c>
+      <c r="E87" s="38" t="n">
+        <v>16391.15</v>
+      </c>
+    </row>
+    <row r="88" ht="35" customHeight="1" s="16">
+      <c r="A88" s="36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B88" s="32" t="n"/>
+      <c r="C88" s="33" t="n"/>
+      <c r="D88" s="37" t="n">
+        <v>13372.5</v>
+      </c>
+      <c r="E88" s="38" t="n">
+        <v>8058.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A65:C65"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="16" min="1" max="1"/>
+    <col width="22" customWidth="1" style="16" min="2" max="2"/>
+    <col width="22" customWidth="1" style="16" min="3" max="3"/>
+    <col width="22" customWidth="1" style="16" min="4" max="4"/>
+    <col width="22" customWidth="1" style="16" min="5" max="5"/>
+    <col width="22" customWidth="1" style="16" min="6" max="6"/>
+    <col width="22" customWidth="1" style="16" min="7" max="7"/>
+    <col width="22" customWidth="1" style="16" min="8" max="8"/>
+    <col width="22" customWidth="1" style="16" min="9" max="9"/>
+    <col width="22" customWidth="1" style="16" min="10" max="10"/>
+    <col width="22" customWidth="1" style="16" min="11" max="11"/>
+    <col width="22" customWidth="1" style="16" min="12" max="12"/>
+    <col width="22" customWidth="1" style="16" min="13" max="13"/>
+    <col width="22" customWidth="1" style="16" min="14" max="14"/>
+    <col width="22" customWidth="1" style="16" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" s="16">
+      <c r="A1" s="22" t="inlineStr">
+        <is>
+          <t>MONTHLY RETAIL SALES SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="16">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>REPORTING MONTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="3" customHeight="1" s="16"/>
+    <row r="4" ht="40" customHeight="1" s="16">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="3" customHeight="1" s="16"/>
+    <row r="6" ht="35" customHeight="1" s="16">
+      <c r="A6" s="25" t="inlineStr">
+        <is>
+          <t>SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="16">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>Total Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" s="16">
+      <c r="A8" s="28" t="n">
+        <v>64246.5</v>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" s="16">
+      <c r="A10" s="25" t="inlineStr">
+        <is>
+          <t>WEEKLY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" s="16">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>Week-6</t>
+        </is>
+      </c>
+      <c r="J11" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" s="16">
+      <c r="A12" s="28" t="n">
+        <v>15711.75</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>15734.75</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>16145.5</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>15901.5</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>753</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="30" t="n">
+        <v>15711.75</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" s="16">
+      <c r="J13" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>15734.75</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" s="16">
+      <c r="J14" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>16145.5</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" s="16">
+      <c r="J15" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>15901.5</v>
+      </c>
+    </row>
+    <row r="16" ht="74.25" customHeight="1" s="16">
+      <c r="J16" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="30" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" s="16">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>DAILY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" s="16">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" s="16">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>10635</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" s="16">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="n">
+        <v>15272.5</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" s="16">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>18199</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" s="16">
+      <c r="A24" s="29" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>6512.5</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" s="16">
+      <c r="A25" s="29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B25" s="28" t="n">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" s="16">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>9449.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" s="16">
+      <c r="A58" s="25" t="inlineStr">
+        <is>
+          <t>CUSTOMERS REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="35" customHeight="1" s="16">
+      <c r="A59" s="27" t="inlineStr">
+        <is>
+          <t>Total Customers</t>
+        </is>
+      </c>
+      <c r="B59" s="27" t="inlineStr">
+        <is>
+          <t>New Cst</t>
+        </is>
+      </c>
+      <c r="C59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst</t>
+        </is>
+      </c>
+      <c r="D59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst from Last Month</t>
+        </is>
+      </c>
+      <c r="E59" s="27" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="F59" s="27" t="inlineStr">
+        <is>
+          <t>R.R wrt. Last Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" s="16">
+      <c r="A60" s="29" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr">
+        <is>
+          <t>11.92%</t>
+        </is>
+      </c>
+      <c r="F60" s="29" t="inlineStr">
+        <is>
+          <t>42.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="35" customHeight="1" s="16">
+      <c r="A62" s="25" t="inlineStr">
+        <is>
+          <t>PREVIOUS MONTH COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="35" customHeight="1" s="16">
+      <c r="A63" s="31" t="inlineStr"/>
+      <c r="B63" s="32" t="n"/>
+      <c r="C63" s="33" t="n"/>
+      <c r="D63" s="34" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E63" s="35" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="35" customHeight="1" s="16">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B64" s="32" t="n"/>
+      <c r="C64" s="33" t="n"/>
+      <c r="D64" s="37" t="n">
+        <v>64246.5</v>
+      </c>
+      <c r="E64" s="38" t="n">
+        <v>74663.14999999999</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" s="16">
+      <c r="A65" s="36" t="inlineStr">
+        <is>
+          <t>Total Orders</t>
+        </is>
+      </c>
+      <c r="B65" s="32" t="n"/>
+      <c r="C65" s="33" t="n"/>
+      <c r="D65" s="37" t="n">
+        <v>102</v>
+      </c>
+      <c r="E65" s="38" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" ht="35" customHeight="1" s="16">
+      <c r="A66" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers List</t>
+        </is>
+      </c>
+      <c r="B66" s="32" t="n"/>
+      <c r="C66" s="33" t="n"/>
+      <c r="D66" s="37" t="n">
+        <v>325</v>
+      </c>
+      <c r="E66" s="38" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" ht="35" customHeight="1" s="16">
+      <c r="A67" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers in Month</t>
+        </is>
+      </c>
+      <c r="B67" s="32" t="n"/>
+      <c r="C67" s="33" t="n"/>
+      <c r="D67" s="37" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67" s="38" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" ht="35" customHeight="1" s="16">
+      <c r="A68" s="36" t="inlineStr">
+        <is>
+          <t>New Customers</t>
+        </is>
+      </c>
+      <c r="B68" s="32" t="n"/>
+      <c r="C68" s="33" t="n"/>
+      <c r="D68" s="37" t="n">
+        <v>23</v>
+      </c>
+      <c r="E68" s="38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="35" customHeight="1" s="16">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>Repeating Customers</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="n"/>
+      <c r="C69" s="33" t="n"/>
+      <c r="D69" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" ht="35" customHeight="1" s="16">
+      <c r="A70" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="B70" s="32" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="37" t="inlineStr">
+        <is>
+          <t>11.92%</t>
+        </is>
+      </c>
+      <c r="E70" s="38" t="inlineStr">
+        <is>
+          <t>13.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="35" customHeight="1" s="16">
+      <c r="A71" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate wrt. Last Month</t>
+        </is>
+      </c>
+      <c r="B71" s="32" t="n"/>
+      <c r="C71" s="33" t="n"/>
+      <c r="D71" s="37" t="inlineStr">
+        <is>
+          <t>42.37%</t>
+        </is>
+      </c>
+      <c r="E71" s="38" t="inlineStr">
+        <is>
+          <t>55.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" s="16">
+      <c r="A73" s="25" t="inlineStr">
+        <is>
+          <t>WEEK COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="35" customHeight="1" s="16">
+      <c r="A74" s="39" t="inlineStr">
+        <is>
+          <t>Weeks</t>
+        </is>
+      </c>
+      <c r="B74" s="32" t="n"/>
+      <c r="C74" s="33" t="n"/>
+      <c r="D74" s="34" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E74" s="35" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="35" customHeight="1" s="16">
+      <c r="A75" s="36" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="B75" s="32" t="n"/>
+      <c r="C75" s="33" t="n"/>
+      <c r="D75" s="37" t="n">
+        <v>15711.75</v>
+      </c>
+      <c r="E75" s="38" t="n">
+        <v>16236.75</v>
+      </c>
+    </row>
+    <row r="76" ht="35" customHeight="1" s="16">
+      <c r="A76" s="36" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="B76" s="32" t="n"/>
+      <c r="C76" s="33" t="n"/>
+      <c r="D76" s="37" t="n">
+        <v>15734.75</v>
+      </c>
+      <c r="E76" s="38" t="n">
+        <v>11286.75</v>
+      </c>
+    </row>
+    <row r="77" ht="35" customHeight="1" s="16">
+      <c r="A77" s="36" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="B77" s="32" t="n"/>
+      <c r="C77" s="33" t="n"/>
+      <c r="D77" s="37" t="n">
+        <v>16145.5</v>
+      </c>
+      <c r="E77" s="38" t="n">
+        <v>22219.4</v>
+      </c>
+    </row>
+    <row r="78" ht="35" customHeight="1" s="16">
+      <c r="A78" s="36" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="B78" s="32" t="n"/>
+      <c r="C78" s="33" t="n"/>
+      <c r="D78" s="37" t="n">
+        <v>15901.5</v>
+      </c>
+      <c r="E78" s="38" t="n">
+        <v>14792</v>
+      </c>
+    </row>
+    <row r="79" ht="35" customHeight="1" s="16">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>Week-6</t>
+        </is>
+      </c>
+      <c r="B79" s="32" t="n"/>
+      <c r="C79" s="33" t="n"/>
+      <c r="D79" s="37" t="n">
+        <v>753</v>
+      </c>
+      <c r="E79" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="35" customHeight="1" s="16">
+      <c r="A80" s="36" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B80" s="32" t="n"/>
+      <c r="C80" s="33" t="n"/>
+      <c r="D80" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="38" t="n">
+        <v>10128.25</v>
+      </c>
+    </row>
+    <row r="81" ht="35" customHeight="1" s="16">
+      <c r="A81" s="25" t="inlineStr">
+        <is>
+          <t>DAY COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="35" customHeight="1" s="16">
+      <c r="A82" s="40" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="B82" s="32" t="n"/>
+      <c r="C82" s="33" t="n"/>
+      <c r="D82" s="34" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+      <c r="E82" s="35" t="inlineStr">
+        <is>
+          <t>May 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="35" customHeight="1" s="16">
+      <c r="A83" s="36" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B83" s="32" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="37" t="n">
+        <v>10635</v>
+      </c>
+      <c r="E83" s="38" t="n">
+        <v>13759.9</v>
+      </c>
+    </row>
+    <row r="84" ht="35" customHeight="1" s="16">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B84" s="32" t="n"/>
+      <c r="C84" s="33" t="n"/>
+      <c r="D84" s="37" t="n">
+        <v>15272.5</v>
+      </c>
+      <c r="E84" s="38" t="n">
+        <v>14634.5</v>
+      </c>
+    </row>
+    <row r="85" ht="35" customHeight="1" s="16">
+      <c r="A85" s="36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B85" s="32" t="n"/>
+      <c r="C85" s="33" t="n"/>
+      <c r="D85" s="37" t="n">
+        <v>18199</v>
+      </c>
+      <c r="E85" s="38" t="n">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="86" ht="35" customHeight="1" s="16">
+      <c r="A86" s="36" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B86" s="32" t="n"/>
+      <c r="C86" s="33" t="n"/>
+      <c r="D86" s="37" t="n">
+        <v>6512.5</v>
+      </c>
+      <c r="E86" s="38" t="n">
+        <v>18233.25</v>
+      </c>
+    </row>
+    <row r="87" ht="35" customHeight="1" s="16">
+      <c r="A87" s="36" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B87" s="32" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="37" t="n">
+        <v>4178</v>
+      </c>
+      <c r="E87" s="38" t="n">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="88" ht="35" customHeight="1" s="16">
+      <c r="A88" s="36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B88" s="32" t="n"/>
+      <c r="C88" s="33" t="n"/>
+      <c r="D88" s="37" t="n">
+        <v>9449.5</v>
+      </c>
+      <c r="E88" s="38" t="n">
+        <v>13372.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A65:C65"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="16" min="1" max="1"/>
+    <col width="22" customWidth="1" style="16" min="2" max="2"/>
+    <col width="22" customWidth="1" style="16" min="3" max="3"/>
+    <col width="22" customWidth="1" style="16" min="4" max="4"/>
+    <col width="22" customWidth="1" style="16" min="5" max="5"/>
+    <col width="22" customWidth="1" style="16" min="6" max="6"/>
+    <col width="22" customWidth="1" style="16" min="7" max="7"/>
+    <col width="22" customWidth="1" style="16" min="8" max="8"/>
+    <col width="22" customWidth="1" style="16" min="9" max="9"/>
+    <col width="22" customWidth="1" style="16" min="10" max="10"/>
+    <col width="22" customWidth="1" style="16" min="11" max="11"/>
+    <col width="22" customWidth="1" style="16" min="12" max="12"/>
+    <col width="22" customWidth="1" style="16" min="13" max="13"/>
+    <col width="22" customWidth="1" style="16" min="14" max="14"/>
+    <col width="22" customWidth="1" style="16" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" s="16">
+      <c r="A1" s="22" t="inlineStr">
+        <is>
+          <t>MONTHLY RETAIL SALES SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="16">
+      <c r="A2" s="23" t="inlineStr">
+        <is>
+          <t>REPORTING MONTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="3" customHeight="1" s="16"/>
+    <row r="4" ht="40" customHeight="1" s="16">
+      <c r="A4" s="24" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="3" customHeight="1" s="16"/>
+    <row r="6" ht="35" customHeight="1" s="16">
+      <c r="A6" s="25" t="inlineStr">
+        <is>
+          <t>SUMMARY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="16">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>Total Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" s="16">
+      <c r="A8" s="28" t="n">
+        <v>82114.04999999999</v>
+      </c>
+      <c r="B8" s="29" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" s="16">
+      <c r="A10" s="25" t="inlineStr">
+        <is>
+          <t>WEEKLY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" s="16">
+      <c r="A11" s="27" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="J11" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="K11" s="30" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" s="16">
+      <c r="A12" s="28" t="n">
+        <v>9520</v>
+      </c>
+      <c r="B12" s="28" t="n">
+        <v>20036</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <v>21438</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <v>18942.7</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <v>12177.35</v>
+      </c>
+      <c r="J12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30" t="n">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" s="16">
+      <c r="J13" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>20036</v>
+      </c>
+    </row>
+    <row r="14" ht="100" customHeight="1" s="16">
+      <c r="J14" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>21438</v>
+      </c>
+    </row>
+    <row r="15" ht="100" customHeight="1" s="16">
+      <c r="J15" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>18942.7</v>
+      </c>
+    </row>
+    <row r="16" ht="74.25" customHeight="1" s="16">
+      <c r="J16" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="30" t="n">
+        <v>12177.35</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" s="16">
+      <c r="A19" s="25" t="inlineStr">
+        <is>
+          <t>DAILY SALES REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" s="16">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>Net Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" s="16">
+      <c r="A21" s="29" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>13308</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" s="16">
+      <c r="A22" s="29" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="n">
+        <v>17016.5</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" s="16">
+      <c r="A23" s="29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="n">
+        <v>11764.25</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" s="16">
+      <c r="A24" s="29" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>9623.799999999999</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" s="16">
+      <c r="A25" s="29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B25" s="28" t="n">
+        <v>13862.75</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" s="16">
+      <c r="A26" s="29" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>16538.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="58" ht="35" customHeight="1" s="16">
+      <c r="A58" s="25" t="inlineStr">
+        <is>
+          <t>CUSTOMERS REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="35" customHeight="1" s="16">
+      <c r="A59" s="27" t="inlineStr">
+        <is>
+          <t>Total Customers</t>
+        </is>
+      </c>
+      <c r="B59" s="27" t="inlineStr">
+        <is>
+          <t>New Cst</t>
+        </is>
+      </c>
+      <c r="C59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst</t>
+        </is>
+      </c>
+      <c r="D59" s="27" t="inlineStr">
+        <is>
+          <t>Repeating Cst from Last Month</t>
+        </is>
+      </c>
+      <c r="E59" s="27" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="F59" s="27" t="inlineStr">
+        <is>
+          <t>R.R wrt. Last Month</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" s="16">
+      <c r="A60" s="29" t="n">
+        <v>71</v>
+      </c>
+      <c r="B60" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="C60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr">
+        <is>
+          <t>15.08%</t>
+        </is>
+      </c>
+      <c r="F60" s="29" t="inlineStr">
+        <is>
+          <t>55.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="35" customHeight="1" s="16">
+      <c r="A62" s="25" t="inlineStr">
+        <is>
+          <t>PREVIOUS MONTH COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="35" customHeight="1" s="16">
+      <c r="A63" s="31" t="inlineStr"/>
+      <c r="B63" s="32" t="n"/>
+      <c r="C63" s="33" t="n"/>
+      <c r="D63" s="34" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E63" s="35" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="35" customHeight="1" s="16">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B64" s="32" t="n"/>
+      <c r="C64" s="33" t="n"/>
+      <c r="D64" s="37" t="n">
+        <v>82114.04999999999</v>
+      </c>
+      <c r="E64" s="38" t="n">
+        <v>64246.5</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" s="16">
+      <c r="A65" s="36" t="inlineStr">
+        <is>
+          <t>Total Orders</t>
+        </is>
+      </c>
+      <c r="B65" s="32" t="n"/>
+      <c r="C65" s="33" t="n"/>
+      <c r="D65" s="37" t="n">
+        <v>154</v>
+      </c>
+      <c r="E65" s="38" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" ht="35" customHeight="1" s="16">
+      <c r="A66" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers List</t>
+        </is>
+      </c>
+      <c r="B66" s="32" t="n"/>
+      <c r="C66" s="33" t="n"/>
+      <c r="D66" s="37" t="n">
+        <v>347</v>
+      </c>
+      <c r="E66" s="38" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" ht="35" customHeight="1" s="16">
+      <c r="A67" s="36" t="inlineStr">
+        <is>
+          <t>Total Customers in Month</t>
+        </is>
+      </c>
+      <c r="B67" s="32" t="n"/>
+      <c r="C67" s="33" t="n"/>
+      <c r="D67" s="37" t="n">
+        <v>71</v>
+      </c>
+      <c r="E67" s="38" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" ht="35" customHeight="1" s="16">
+      <c r="A68" s="36" t="inlineStr">
+        <is>
+          <t>New Customers</t>
+        </is>
+      </c>
+      <c r="B68" s="32" t="n"/>
+      <c r="C68" s="33" t="n"/>
+      <c r="D68" s="37" t="n">
+        <v>22</v>
+      </c>
+      <c r="E68" s="38" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" ht="35" customHeight="1" s="16">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>Repeating Customers</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="n"/>
+      <c r="C69" s="33" t="n"/>
+      <c r="D69" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" ht="35" customHeight="1" s="16">
+      <c r="A70" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate</t>
+        </is>
+      </c>
+      <c r="B70" s="32" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="37" t="inlineStr">
+        <is>
+          <t>15.08%</t>
+        </is>
+      </c>
+      <c r="E70" s="38" t="inlineStr">
+        <is>
+          <t>11.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="35" customHeight="1" s="16">
+      <c r="A71" s="36" t="inlineStr">
+        <is>
+          <t>Retention Rate wrt. Last Month</t>
+        </is>
+      </c>
+      <c r="B71" s="32" t="n"/>
+      <c r="C71" s="33" t="n"/>
+      <c r="D71" s="37" t="inlineStr">
+        <is>
+          <t>55.93%</t>
+        </is>
+      </c>
+      <c r="E71" s="38" t="inlineStr">
+        <is>
+          <t>42.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="35" customHeight="1" s="16">
+      <c r="A73" s="25" t="inlineStr">
+        <is>
+          <t>WEEK COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="35" customHeight="1" s="16">
+      <c r="A74" s="39" t="inlineStr">
+        <is>
+          <t>Weeks</t>
+        </is>
+      </c>
+      <c r="B74" s="32" t="n"/>
+      <c r="C74" s="33" t="n"/>
+      <c r="D74" s="34" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E74" s="35" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="35" customHeight="1" s="16">
+      <c r="A75" s="36" t="inlineStr">
+        <is>
+          <t>Week-1</t>
+        </is>
+      </c>
+      <c r="B75" s="32" t="n"/>
+      <c r="C75" s="33" t="n"/>
+      <c r="D75" s="37" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E75" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="35" customHeight="1" s="16">
+      <c r="A76" s="36" t="inlineStr">
+        <is>
+          <t>Week-2</t>
+        </is>
+      </c>
+      <c r="B76" s="32" t="n"/>
+      <c r="C76" s="33" t="n"/>
+      <c r="D76" s="37" t="n">
+        <v>20036</v>
+      </c>
+      <c r="E76" s="38" t="n">
+        <v>15711.75</v>
+      </c>
+    </row>
+    <row r="77" ht="35" customHeight="1" s="16">
+      <c r="A77" s="36" t="inlineStr">
+        <is>
+          <t>Week-3</t>
+        </is>
+      </c>
+      <c r="B77" s="32" t="n"/>
+      <c r="C77" s="33" t="n"/>
+      <c r="D77" s="37" t="n">
+        <v>21438</v>
+      </c>
+      <c r="E77" s="38" t="n">
+        <v>15734.75</v>
+      </c>
+    </row>
+    <row r="78" ht="35" customHeight="1" s="16">
+      <c r="A78" s="36" t="inlineStr">
+        <is>
+          <t>Week-4</t>
+        </is>
+      </c>
+      <c r="B78" s="32" t="n"/>
+      <c r="C78" s="33" t="n"/>
+      <c r="D78" s="37" t="n">
+        <v>18942.7</v>
+      </c>
+      <c r="E78" s="38" t="n">
+        <v>16145.5</v>
+      </c>
+    </row>
+    <row r="79" ht="35" customHeight="1" s="16">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>Week-5</t>
+        </is>
+      </c>
+      <c r="B79" s="32" t="n"/>
+      <c r="C79" s="33" t="n"/>
+      <c r="D79" s="37" t="n">
+        <v>12177.35</v>
+      </c>
+      <c r="E79" s="38" t="n">
+        <v>15901.5</v>
+      </c>
+    </row>
+    <row r="80" ht="35" customHeight="1" s="16">
+      <c r="A80" s="36" t="inlineStr">
+        <is>
+          <t>Week-6</t>
+        </is>
+      </c>
+      <c r="B80" s="32" t="n"/>
+      <c r="C80" s="33" t="n"/>
+      <c r="D80" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="38" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="81" ht="35" customHeight="1" s="16">
+      <c r="A81" s="25" t="inlineStr">
+        <is>
+          <t>DAY COMPARISION</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="35" customHeight="1" s="16">
+      <c r="A82" s="40" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="B82" s="32" t="n"/>
+      <c r="C82" s="33" t="n"/>
+      <c r="D82" s="34" t="inlineStr">
+        <is>
+          <t>Jul 2025</t>
+        </is>
+      </c>
+      <c r="E82" s="35" t="inlineStr">
+        <is>
+          <t>Jun 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="35" customHeight="1" s="16">
+      <c r="A83" s="36" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B83" s="32" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="37" t="n">
+        <v>13308</v>
+      </c>
+      <c r="E83" s="38" t="n">
+        <v>10635</v>
+      </c>
+    </row>
+    <row r="84" ht="35" customHeight="1" s="16">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B84" s="32" t="n"/>
+      <c r="C84" s="33" t="n"/>
+      <c r="D84" s="37" t="n">
+        <v>17016.5</v>
+      </c>
+      <c r="E84" s="38" t="n">
+        <v>15272.5</v>
+      </c>
+    </row>
+    <row r="85" ht="35" customHeight="1" s="16">
+      <c r="A85" s="36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B85" s="32" t="n"/>
+      <c r="C85" s="33" t="n"/>
+      <c r="D85" s="37" t="n">
+        <v>11764.25</v>
+      </c>
+      <c r="E85" s="38" t="n">
+        <v>18199</v>
+      </c>
+    </row>
+    <row r="86" ht="35" customHeight="1" s="16">
+      <c r="A86" s="36" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B86" s="32" t="n"/>
+      <c r="C86" s="33" t="n"/>
+      <c r="D86" s="37" t="n">
+        <v>9623.799999999999</v>
+      </c>
+      <c r="E86" s="38" t="n">
+        <v>6512.5</v>
+      </c>
+    </row>
+    <row r="87" ht="35" customHeight="1" s="16">
+      <c r="A87" s="36" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B87" s="32" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="37" t="n">
+        <v>13862.75</v>
+      </c>
+      <c r="E87" s="38" t="n">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="88" ht="35" customHeight="1" s="16">
+      <c r="A88" s="36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="B88" s="32" t="n"/>
+      <c r="C88" s="33" t="n"/>
+      <c r="D88" s="37" t="n">
+        <v>16538.75</v>
+      </c>
+      <c r="E88" s="38" t="n">
+        <v>9449.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A65:C65"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
+++ b/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
@@ -685,7 +685,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Jun 2025'!B20</f>
+              <f>'May 2025'!B20</f>
             </strRef>
           </tx>
           <spPr>
@@ -695,12 +695,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Jun 2025'!$A$21:$A$26</f>
+              <f>'May 2025'!$A$21:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Jun 2025'!$B$21:$B$26</f>
+              <f>'May 2025'!$B$21:$B$26</f>
             </numRef>
           </val>
         </ser>
@@ -796,6 +796,528 @@
           <order val="0"/>
           <tx>
             <strRef>
+              <f>'May 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
               <f>'Jul 2025'!K11</f>
             </strRef>
           </tx>
@@ -832,9 +1354,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -939,6 +1460,68 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1143,6 +1726,119 @@
         <crossAx val="10"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1525,7 +2221,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'May 2025'!K11</f>
+              <f>'Apr 2025'!K11</f>
             </strRef>
           </tx>
           <spPr>
@@ -1535,12 +2231,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'May 2025'!$J$12:$J$16</f>
+              <f>'Apr 2025'!$J$12:$J$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'May 2025'!$K$12:$K$16</f>
+              <f>'Apr 2025'!$K$12:$K$16</f>
             </numRef>
           </val>
         </ser>
@@ -1588,7 +2284,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'May 2025'!B20</f>
+              <f>'Apr 2025'!B20</f>
             </strRef>
           </tx>
           <spPr>
@@ -1598,12 +2294,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'May 2025'!$A$21:$A$26</f>
+              <f>'Apr 2025'!$A$21:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'May 2025'!$B$21:$B$26</f>
+              <f>'Apr 2025'!$B$21:$B$26</f>
             </numRef>
           </val>
         </ser>
@@ -1699,7 +2395,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Jun 2025'!K11</f>
+              <f>'May 2025'!K11</f>
             </strRef>
           </tx>
           <spPr>
@@ -1709,12 +2405,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Jun 2025'!$J$12:$J$16</f>
+              <f>'May 2025'!$J$12:$J$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Jun 2025'!$K$12:$K$16</f>
+              <f>'May 2025'!$K$12:$K$16</f>
             </numRef>
           </val>
         </ser>
@@ -1879,6 +2575,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1923,6 +2663,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1977,6 +2761,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2021,6 +2849,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -4093,10 +4965,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="29" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D60" s="29" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E60" s="29" t="inlineStr">
         <is>
@@ -4840,10 +5712,10 @@
         <v>20</v>
       </c>
       <c r="C60" s="29" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D60" s="29" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E60" s="29" t="inlineStr">
         <is>
@@ -5571,10 +6443,10 @@
         <v>23</v>
       </c>
       <c r="C60" s="29" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D60" s="29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E60" s="29" t="inlineStr">
         <is>
@@ -6318,10 +7190,10 @@
         <v>22</v>
       </c>
       <c r="C60" s="29" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D60" s="29" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E60" s="29" t="inlineStr">
         <is>

--- a/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
+++ b/Spreadsheets/Mr_Blue_Monthly_Reports.xlsx
@@ -685,7 +685,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'May 2025'!B20</f>
+              <f>'Apr 2025'!B20</f>
             </strRef>
           </tx>
           <spPr>
@@ -695,12 +695,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'May 2025'!$A$21:$A$26</f>
+              <f>'Apr 2025'!$A$21:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'May 2025'!$B$21:$B$26</f>
+              <f>'Apr 2025'!$B$21:$B$26</f>
             </numRef>
           </val>
         </ser>
@@ -970,6 +970,354 @@
           <order val="0"/>
           <tx>
             <strRef>
+              <f>'May 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'May 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'May 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'May 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
               <f>'Jun 2025'!K11</f>
             </strRef>
           </tx>
@@ -1006,7 +1354,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1118,7 +1466,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1160,354 +1508,6 @@
           <val>
             <numRef>
               <f>'Jun 2025'!$K$12:$K$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="0"/>
-          <showPercent val="1"/>
-        </dLbls>
-        <firstSliceAng val="0"/>
-        <holeSize val="10"/>
-      </doughnutChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Daily Sales Report</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="bar"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Jun 2025'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Jun 2025'!$A$21:$A$26</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Jun 2025'!$B$21:$B$26</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Revenue</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Weekly Revenue</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <doughnutChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Jul 2025'!K11</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Jul 2025'!$J$12:$J$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Jul 2025'!$K$12:$K$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="0"/>
-          <showPercent val="1"/>
-        </dLbls>
-        <firstSliceAng val="0"/>
-        <holeSize val="10"/>
-      </doughnutChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Daily Sales Report</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="bar"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Jul 2025'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Jul 2025'!$A$21:$A$26</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Jul 2025'!$B$21:$B$26</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Revenue</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Weekly Revenue</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <doughnutChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Jul 2025'!K11</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Jul 2025'!$J$12:$J$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Jul 2025'!$K$12:$K$16</f>
             </numRef>
           </val>
         </ser>
@@ -1735,6 +1735,702 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jun 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jun 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jun 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Daily Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!B20</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$A$21:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$B$21:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Weekly Revenue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Jul 2025'!K11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Jul 2025'!$J$12:$J$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Jul 2025'!$K$12:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+        <holeSize val="10"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="2"/>
   <chart>
@@ -2395,7 +3091,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'May 2025'!K11</f>
+              <f>'Apr 2025'!K11</f>
             </strRef>
           </tx>
           <spPr>
@@ -2405,12 +3101,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'May 2025'!$J$12:$J$16</f>
+              <f>'Apr 2025'!$J$12:$J$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'May 2025'!$K$12:$K$16</f>
+              <f>'Apr 2025'!$K$12:$K$16</f>
             </numRef>
           </val>
         </ser>
@@ -2619,6 +3315,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2707,6 +3447,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2805,6 +3589,50 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2893,6 +3721,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9720000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -5087,7 +5959,7 @@
       <c r="B69" s="32" t="n"/>
       <c r="C69" s="33" t="n"/>
       <c r="D69" s="37" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E69" s="38" t="n">
         <v>39</v>
@@ -5834,10 +6706,10 @@
       <c r="B69" s="32" t="n"/>
       <c r="C69" s="33" t="n"/>
       <c r="D69" s="37" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E69" s="38" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="35" customHeight="1" s="16">
@@ -6565,10 +7437,10 @@
       <c r="B69" s="32" t="n"/>
       <c r="C69" s="33" t="n"/>
       <c r="D69" s="37" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E69" s="38" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="35" customHeight="1" s="16">
@@ -7312,10 +8184,10 @@
       <c r="B69" s="32" t="n"/>
       <c r="C69" s="33" t="n"/>
       <c r="D69" s="37" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E69" s="38" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="35" customHeight="1" s="16">
